--- a/biology/Botanique/Pavier_de_Californie/Pavier_de_Californie.xlsx
+++ b/biology/Botanique/Pavier_de_Californie/Pavier_de_Californie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aesculus californica
 Le pavier de Californie, ou marronnier de Californie, est une espèce de la famille des Sapindacées, endémique de la Californie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavier de Californie est un petit arbre, ou un grand arbuste, de 4 à 12 mètres de haut, à l'écorce grise souvent recouverte de lichens.
 Les feuilles de couleur vert foncé sont composées-palmées et comptent cinq (plus rarement sept) folioles de 10 à 20 cm de long, aux bords finement dentés et aux faces duveteuses (en particulier au printemps).
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Californie. On peut la trouver dans la région de la Côte centrale et sur les parties les plus basses de la Sierra Nevada, jusqu'à 1700 mètres d'altitude.
 Elle pousse dans les bois de chênes, devenant l'espèce dominante dans certaines formations végétales du type chaparral. Ces arbres font office de stabilisateurs des sols, limitant l'érosion dans les régions accidentées.
@@ -578,7 +594,9 @@
           <t>Utilisation et propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavier de Californie est parfois cultivé comme plante ornementale.
 Les tribus locales amérindiennes, dont les Pomo, Yokuts et Luiseño, utilisent les graines toxiques de cette plante pour endormir des bancs de poissons dans de petits cours d'eau et faciliter ainsi leur capture.
